--- a/Datasets/movies_db_excel_Basics.xlsx
+++ b/Datasets/movies_db_excel_Basics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aswath CM\Data Scientist Loading\Data-Science\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9791EA-3C92-4DB1-8FC5-C6776B8C8987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277E11C8-289F-425D-92D7-15603059F624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,13 +24,16 @@
     <definedName name="Slicer_studio">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -72,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="179">
   <si>
     <t>movie_id</t>
   </si>
@@ -597,6 +600,18 @@
   </si>
   <si>
     <t>Mode IMDB</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Sum of release_year</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -607,7 +622,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -659,7 +674,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -669,7 +684,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -922,15 +945,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>613679</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1375679</xdr:colOff>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>4696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1180176</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>179570</xdr:colOff>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>70217</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
@@ -1001,6 +1024,993 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Aswath CM" refreshedDate="45348.893098726854" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="39" xr:uid="{FCFE0A8C-0888-42E2-8BF1-679CEB0335F6}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Movies"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="movie_id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="140"/>
+    </cacheField>
+    <cacheField name="title" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="industry" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="release_year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1946" maxValue="2022" count="25">
+        <n v="2022"/>
+        <n v="2013"/>
+        <n v="2017"/>
+        <n v="1975"/>
+        <n v="1995"/>
+        <n v="2009"/>
+        <n v="2001"/>
+        <n v="2015"/>
+        <n v="1994"/>
+        <n v="2010"/>
+        <n v="2014"/>
+        <n v="2006"/>
+        <n v="2000"/>
+        <n v="1997"/>
+        <n v="1946"/>
+        <n v="1972"/>
+        <n v="2008"/>
+        <n v="1993"/>
+        <n v="2019"/>
+        <n v="2018"/>
+        <n v="1955"/>
+        <n v="2007"/>
+        <n v="2003"/>
+        <n v="2021"/>
+        <n v="2011"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="imdb_rating" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.9" maxValue="9.3000000000000007"/>
+    </cacheField>
+    <cacheField name="studio" numFmtId="0">
+      <sharedItems count="22">
+        <s v="Hombale Films"/>
+        <s v="Marvel Studios"/>
+        <s v="United Producers"/>
+        <s v="Yash Raj Films"/>
+        <s v="Vinod Chopra Films"/>
+        <s v="Dharma Productions"/>
+        <s v="Not Available"/>
+        <s v="Castle Rock Entertainment"/>
+        <s v="Warner Bros. Pictures"/>
+        <s v="Columbia Pictures"/>
+        <s v="Universal Pictures"/>
+        <s v="Paramount Pictures"/>
+        <s v="Liberty Films"/>
+        <s v="20th Century Fox"/>
+        <s v="Syncopy"/>
+        <s v="Government of West Bengal"/>
+        <s v="Vinod Chopra Productions"/>
+        <s v="Mythri Movie Makers"/>
+        <s v="DVV Entertainment"/>
+        <s v="Arka Media Works"/>
+        <s v="Zee Studios"/>
+        <s v="Salman Khan Films"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="language_id" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="7"/>
+    </cacheField>
+    <cacheField name="budget" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1" maxValue="900"/>
+    </cacheField>
+    <cacheField name="revenue" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="3.1" maxValue="11690"/>
+    </cacheField>
+    <cacheField name="unit" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="currency" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Budget(in Mil)" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="3.18" maxValue="5500"/>
+    </cacheField>
+    <cacheField name="Revenue(in Mil)" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="3.3" maxValue="12500"/>
+    </cacheField>
+    <cacheField name="Budget (INR)" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="70" maxValue="32000"/>
+    </cacheField>
+    <cacheField name="Revenue(INR)" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="227760" count="38">
+        <n v="12500"/>
+        <n v="76384"/>
+        <n v="51584"/>
+        <n v="68320"/>
+        <n v="53600"/>
+        <s v="Not Available"/>
+        <n v="2000"/>
+        <n v="4000"/>
+        <n v="1360"/>
+        <n v="3500"/>
+        <n v="5864"/>
+        <n v="56144"/>
+        <n v="24568"/>
+        <n v="36840"/>
+        <n v="176160"/>
+        <n v="264"/>
+        <n v="227760"/>
+        <n v="23280"/>
+        <n v="80480"/>
+        <n v="25776"/>
+        <n v="83680"/>
+        <n v="21048"/>
+        <n v="223840"/>
+        <n v="163840"/>
+        <n v="100"/>
+        <n v="1350"/>
+        <n v="410"/>
+        <n v="8540"/>
+        <n v="5900"/>
+        <n v="3600"/>
+        <n v="12000"/>
+        <n v="6500"/>
+        <n v="3409"/>
+        <n v="11690"/>
+        <n v="29648"/>
+        <n v="57152"/>
+        <n v="3100"/>
+        <n v="950"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="39">
+  <r>
+    <n v="101"/>
+    <s v="K.G.F: Chapter 2"/>
+    <s v="Bollywood"/>
+    <x v="0"/>
+    <n v="8.4"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="12.5"/>
+    <s v="Billions"/>
+    <s v="INR"/>
+    <n v="1000"/>
+    <n v="12500"/>
+    <n v="1000"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <s v="Doctor Strange in the Multiverse of Madness"/>
+    <s v="Hollywood"/>
+    <x v="0"/>
+    <n v="7"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="200"/>
+    <n v="954.8"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="200"/>
+    <n v="954.8"/>
+    <n v="16000"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <s v="Thor: The Dark World"/>
+    <s v="Hollywood"/>
+    <x v="1"/>
+    <n v="6.8"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="165"/>
+    <n v="644.79999999999995"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="165"/>
+    <n v="644.79999999999995"/>
+    <n v="13200"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <s v="Thor: Ragnarok"/>
+    <s v="Hollywood"/>
+    <x v="2"/>
+    <n v="7.9"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="180"/>
+    <n v="854"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="180"/>
+    <n v="854"/>
+    <n v="14400"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <s v="Thor: Love and Thunder"/>
+    <s v="Hollywood"/>
+    <x v="0"/>
+    <n v="6.8"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="250"/>
+    <n v="670"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="250"/>
+    <n v="670"/>
+    <n v="20000"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <s v="Sholay"/>
+    <s v="Bollywood"/>
+    <x v="3"/>
+    <n v="8.1"/>
+    <x v="2"/>
+    <n v="1"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <s v="Dilwale Dulhania Le Jayenge"/>
+    <s v="Bollywood"/>
+    <x v="4"/>
+    <n v="8"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="400"/>
+    <n v="2000"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="400"/>
+    <n v="2000"/>
+    <n v="400"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <s v="3 Idiots"/>
+    <s v="Bollywood"/>
+    <x v="5"/>
+    <n v="8.4"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="550"/>
+    <n v="4000"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="550"/>
+    <n v="4000"/>
+    <n v="550"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <s v="Kabhi Khushi Kabhie Gham"/>
+    <s v="Bollywood"/>
+    <x v="6"/>
+    <n v="7.4"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="390"/>
+    <n v="1360"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="390"/>
+    <n v="1360"/>
+    <n v="390"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <s v="Bajirao Mastani"/>
+    <s v="Bollywood"/>
+    <x v="7"/>
+    <n v="7.2"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="1.4"/>
+    <n v="3.5"/>
+    <s v="Billions"/>
+    <s v="INR"/>
+    <n v="1400"/>
+    <n v="3500"/>
+    <n v="1400"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <s v="The Shawshank Redemption"/>
+    <s v="Hollywood"/>
+    <x v="8"/>
+    <n v="9.3000000000000007"/>
+    <x v="7"/>
+    <n v="5"/>
+    <n v="25"/>
+    <n v="73.3"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="25"/>
+    <n v="73.3"/>
+    <n v="2000"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <s v="Inception"/>
+    <s v="Hollywood"/>
+    <x v="9"/>
+    <n v="8.8000000000000007"/>
+    <x v="8"/>
+    <n v="5"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <s v="Not Available"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <s v="Interstellar"/>
+    <s v="Hollywood"/>
+    <x v="10"/>
+    <n v="8.6"/>
+    <x v="8"/>
+    <n v="5"/>
+    <n v="165"/>
+    <n v="701.8"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="165"/>
+    <n v="701.8"/>
+    <n v="13200"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <s v="The Pursuit of Happyness"/>
+    <s v="Hollywood"/>
+    <x v="11"/>
+    <n v="8"/>
+    <x v="9"/>
+    <n v="5"/>
+    <n v="55"/>
+    <n v="307.10000000000002"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="55"/>
+    <n v="307.10000000000002"/>
+    <n v="4400"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <s v="Gladiator"/>
+    <s v="Hollywood"/>
+    <x v="12"/>
+    <n v="8.5"/>
+    <x v="10"/>
+    <n v="5"/>
+    <n v="103"/>
+    <n v="460.5"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="103"/>
+    <n v="460.5"/>
+    <n v="8240"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <s v="Titanic"/>
+    <s v="Hollywood"/>
+    <x v="13"/>
+    <n v="7.9"/>
+    <x v="11"/>
+    <n v="5"/>
+    <n v="200"/>
+    <n v="2202"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="200"/>
+    <n v="2202"/>
+    <n v="16000"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <s v="It's a Wonderful Life"/>
+    <s v="Hollywood"/>
+    <x v="14"/>
+    <n v="8.6"/>
+    <x v="12"/>
+    <n v="5"/>
+    <n v="3.18"/>
+    <n v="3.3"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="3.18"/>
+    <n v="3.3"/>
+    <n v="254.4"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <s v="Avatar"/>
+    <s v="Hollywood"/>
+    <x v="5"/>
+    <n v="7.8"/>
+    <x v="13"/>
+    <n v="5"/>
+    <n v="237"/>
+    <n v="2847"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="237"/>
+    <n v="2847"/>
+    <n v="18960"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <s v="The Godfather"/>
+    <s v="Hollywood"/>
+    <x v="15"/>
+    <n v="9.1999999999999993"/>
+    <x v="11"/>
+    <n v="5"/>
+    <n v="7.2"/>
+    <n v="291"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="7.2"/>
+    <n v="291"/>
+    <n v="576"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <s v="The Dark Knight"/>
+    <s v="Hollywood"/>
+    <x v="16"/>
+    <n v="9"/>
+    <x v="14"/>
+    <n v="5"/>
+    <n v="185"/>
+    <n v="1006"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="185"/>
+    <n v="1006"/>
+    <n v="14800"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <s v="Schindler's List"/>
+    <s v="Hollywood"/>
+    <x v="17"/>
+    <n v="9"/>
+    <x v="10"/>
+    <n v="5"/>
+    <n v="22"/>
+    <n v="322.2"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="22"/>
+    <n v="322.2"/>
+    <n v="1760"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <s v="Jurassic Park"/>
+    <s v="Hollywood"/>
+    <x v="17"/>
+    <n v="8.1999999999999993"/>
+    <x v="10"/>
+    <n v="5"/>
+    <n v="63"/>
+    <n v="1046"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="63"/>
+    <n v="1046"/>
+    <n v="5040"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <s v="Parasite"/>
+    <s v="Hollywood"/>
+    <x v="18"/>
+    <n v="8.5"/>
+    <x v="6"/>
+    <n v="5"/>
+    <n v="15.5"/>
+    <n v="263.10000000000002"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="15.5"/>
+    <n v="263.10000000000002"/>
+    <n v="1240"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <s v="Avengers: Endgame"/>
+    <s v="Hollywood"/>
+    <x v="18"/>
+    <n v="8.4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="400"/>
+    <n v="2798"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="400"/>
+    <n v="2798"/>
+    <n v="32000"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <s v="Avengers: Infinity War"/>
+    <s v="Hollywood"/>
+    <x v="19"/>
+    <n v="8.4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="400"/>
+    <n v="2048"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="400"/>
+    <n v="2048"/>
+    <n v="32000"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <s v="Pather Panchali"/>
+    <s v="Bollywood"/>
+    <x v="20"/>
+    <n v="8.3000000000000007"/>
+    <x v="15"/>
+    <n v="7"/>
+    <n v="70"/>
+    <n v="100"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="70"/>
+    <n v="100"/>
+    <n v="70"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <s v="Taare Zameen Par"/>
+    <s v="Bollywood"/>
+    <x v="21"/>
+    <n v="8.3000000000000007"/>
+    <x v="6"/>
+    <n v="1"/>
+    <n v="120"/>
+    <n v="1350"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="120"/>
+    <n v="1350"/>
+    <n v="120"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <s v="Munna Bhai M.B.B.S."/>
+    <s v="Bollywood"/>
+    <x v="22"/>
+    <n v="8.1"/>
+    <x v="16"/>
+    <n v="1"/>
+    <n v="100"/>
+    <n v="410"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="100"/>
+    <n v="410"/>
+    <n v="100"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <s v="PK"/>
+    <s v="Bollywood"/>
+    <x v="10"/>
+    <n v="8.1"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="850"/>
+    <n v="8540"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="850"/>
+    <n v="8540"/>
+    <n v="850"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <s v="Sanju"/>
+    <s v="Bollywood"/>
+    <x v="19"/>
+    <s v="NULL"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="5.9"/>
+    <s v="Billions"/>
+    <s v="INR"/>
+    <n v="1000"/>
+    <n v="5900"/>
+    <n v="1000"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <s v="Pushpa: The Rise - Part 1"/>
+    <s v="Bollywood"/>
+    <x v="23"/>
+    <n v="7.6"/>
+    <x v="17"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="3.6"/>
+    <s v="Billions"/>
+    <s v="INR"/>
+    <n v="2000"/>
+    <n v="3600"/>
+    <n v="2000"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <s v="RRR"/>
+    <s v="Bollywood"/>
+    <x v="0"/>
+    <n v="8"/>
+    <x v="18"/>
+    <n v="2"/>
+    <n v="5.5"/>
+    <n v="12"/>
+    <s v="Billions"/>
+    <s v="INR"/>
+    <n v="5500"/>
+    <n v="12000"/>
+    <n v="5500"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <s v="Baahubali: The Beginning"/>
+    <s v="Bollywood"/>
+    <x v="7"/>
+    <n v="8"/>
+    <x v="19"/>
+    <n v="2"/>
+    <n v="1.8"/>
+    <n v="6.5"/>
+    <s v="Billions"/>
+    <s v="INR"/>
+    <n v="1800"/>
+    <n v="6500"/>
+    <n v="1800"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <s v="The Kashmir Files"/>
+    <s v="Bollywood"/>
+    <x v="0"/>
+    <n v="8.3000000000000007"/>
+    <x v="20"/>
+    <n v="1"/>
+    <n v="250"/>
+    <n v="3409"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="250"/>
+    <n v="3409"/>
+    <n v="250"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <s v="Bajrangi Bhaijaan"/>
+    <s v="Bollywood"/>
+    <x v="7"/>
+    <n v="8.1"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="900"/>
+    <n v="11690"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="900"/>
+    <n v="11690"/>
+    <n v="900"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <s v="Captain America: The First Avenger"/>
+    <s v="Hollywood"/>
+    <x v="24"/>
+    <n v="6.9"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="216.7"/>
+    <n v="370.6"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="216.7"/>
+    <n v="370.6"/>
+    <n v="17336"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <s v="Captain America: The Winter Soldier"/>
+    <s v="Hollywood"/>
+    <x v="10"/>
+    <n v="7.8"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="177"/>
+    <n v="714.4"/>
+    <s v="Millions"/>
+    <s v="USD"/>
+    <n v="177"/>
+    <n v="714.4"/>
+    <n v="14160"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <s v="Race 3"/>
+    <s v="Bollywood"/>
+    <x v="19"/>
+    <n v="1.9"/>
+    <x v="21"/>
+    <n v="1"/>
+    <n v="1.8"/>
+    <n v="3.1"/>
+    <s v="Billions"/>
+    <s v="INR"/>
+    <n v="1800"/>
+    <n v="3100"/>
+    <n v="1800"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <s v="Shershaah"/>
+    <s v="Bollywood"/>
+    <x v="23"/>
+    <n v="8.4"/>
+    <x v="5"/>
+    <n v="1"/>
+    <n v="500"/>
+    <n v="950"/>
+    <s v="Millions"/>
+    <s v="INR"/>
+    <n v="500"/>
+    <n v="950"/>
+    <n v="500"/>
+    <x v="37"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FB8C49C-B177-4F10-A39B-285F3D03F2EC}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I49:J59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="26">
+        <item x="14"/>
+        <item x="20"/>
+        <item x="15"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="22"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="24"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="23"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="23">
+        <item h="1" x="13"/>
+        <item h="1" x="19"/>
+        <item h="1" x="7"/>
+        <item h="1" x="9"/>
+        <item h="1" x="5"/>
+        <item h="1" x="18"/>
+        <item h="1" x="15"/>
+        <item h="1" x="0"/>
+        <item h="1" x="12"/>
+        <item x="1"/>
+        <item h="1" x="17"/>
+        <item h="1" x="6"/>
+        <item h="1" x="11"/>
+        <item h="1" x="21"/>
+        <item h="1" x="14"/>
+        <item h="1" x="2"/>
+        <item h="1" x="10"/>
+        <item h="1" x="4"/>
+        <item h="1" x="16"/>
+        <item h="1" x="8"/>
+        <item h="1" x="3"/>
+        <item h="1" x="20"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="39">
+        <item x="24"/>
+        <item x="15"/>
+        <item x="26"/>
+        <item x="37"/>
+        <item x="25"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="36"/>
+        <item x="32"/>
+        <item x="9"/>
+        <item x="29"/>
+        <item x="7"/>
+        <item x="10"/>
+        <item x="28"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="19"/>
+        <item x="34"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="35"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="23"/>
+        <item x="14"/>
+        <item x="22"/>
+        <item x="16"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="5"/>
+    <field x="14"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of release_year" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_studio" xr10:uid="{6598A247-CFBE-4AEA-B4EC-D4FD474DC1D6}" sourceName="studio">
   <extLst>
@@ -1013,13 +2023,19 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="studio" xr10:uid="{A9C326E4-BF52-41B9-9531-24E9BC095625}" cache="Slicer_studio" caption="studio" rowHeight="234950"/>
+  <slicer name="studio" xr10:uid="{A9C326E4-BF52-41B9-9531-24E9BC095625}" cache="Slicer_studio" caption="studio" startItem="3" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:O41" totalsRowCount="1" headerRowDxfId="20">
-  <autoFilter ref="A1:O40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
+  <autoFilter ref="A1:O40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Marvel Studios"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{5E453F0D-B27C-433C-BF11-BA3FE1A6822E}" name="movie_id" totalsRowLabel="Total"/>
     <tableColumn id="8" xr3:uid="{AEC53FD7-BF8A-4895-B8F6-DCBA25100657}" name="title"/>
@@ -1368,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="F37" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1383,13 +2399,38 @@
     <col min="5" max="5" width="6.109375" customWidth="1"/>
     <col min="6" max="6" width="27.77734375" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" customWidth="1"/>
-    <col min="13" max="13" width="17.6640625" customWidth="1"/>
-    <col min="14" max="14" width="15.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="25" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="42" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="7" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="7" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="7" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="7" bestFit="1" customWidth="1"/>
+    <col min="69" max="72" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1439,7 +2480,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -1714,7 +2755,7 @@
         <v>53600</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>106</v>
       </c>
@@ -1769,7 +2810,7 @@
         <v>Not Available</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>107</v>
       </c>
@@ -1824,7 +2865,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>108</v>
       </c>
@@ -1879,7 +2920,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>109</v>
       </c>
@@ -1934,7 +2975,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>110</v>
       </c>
@@ -1989,7 +3030,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>111</v>
       </c>
@@ -2044,7 +3085,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>112</v>
       </c>
@@ -2099,7 +3140,7 @@
         <v>Not Available</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>113</v>
       </c>
@@ -2154,7 +3195,7 @@
         <v>56144</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>115</v>
       </c>
@@ -2209,7 +3250,7 @@
         <v>24568</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>116</v>
       </c>
@@ -2264,7 +3305,7 @@
         <v>36840</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>117</v>
       </c>
@@ -2319,7 +3360,7 @@
         <v>176160</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>118</v>
       </c>
@@ -2374,7 +3415,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>119</v>
       </c>
@@ -2429,7 +3470,7 @@
         <v>227760</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>120</v>
       </c>
@@ -2484,7 +3525,7 @@
         <v>23280</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>121</v>
       </c>
@@ -2539,7 +3580,7 @@
         <v>80480</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>122</v>
       </c>
@@ -2594,7 +3635,7 @@
         <v>25776</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>123</v>
       </c>
@@ -2649,7 +3690,7 @@
         <v>83680</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>124</v>
       </c>
@@ -2814,7 +3855,7 @@
         <v>163840</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>127</v>
       </c>
@@ -2869,7 +3910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>128</v>
       </c>
@@ -2924,7 +3965,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>129</v>
       </c>
@@ -2979,7 +4020,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>130</v>
       </c>
@@ -3034,7 +4075,7 @@
         <v>8540</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>131</v>
       </c>
@@ -3089,7 +4130,7 @@
         <v>5900</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>132</v>
       </c>
@@ -3144,7 +4185,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>133</v>
       </c>
@@ -3199,7 +4240,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>134</v>
       </c>
@@ -3254,7 +4295,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>135</v>
       </c>
@@ -3309,7 +4350,7 @@
         <v>3409</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>136</v>
       </c>
@@ -3474,7 +4515,7 @@
         <v>57152</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>139</v>
       </c>
@@ -3529,7 +4570,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>140</v>
       </c>
@@ -3590,30 +4631,92 @@
       </c>
       <c r="H41">
         <f>SUBTOTAL(109,Movies[budget])</f>
-        <v>7214.08</v>
+        <v>1988.7</v>
       </c>
       <c r="I41" s="4">
         <f>SUBTOTAL(109,Movies[revenue])</f>
-        <v>52433.999999999993</v>
+        <v>9054.6</v>
       </c>
       <c r="L41" s="4">
         <f>SUBTOTAL(109,Movies[Budget(in Mil)])</f>
-        <v>21699.58</v>
+        <v>1988.7</v>
       </c>
       <c r="M41" s="3">
         <f>SUBTOTAL(109,Movies[Revenue(in Mil)])</f>
-        <v>99486.9</v>
+        <v>9054.6</v>
       </c>
       <c r="N41" s="3">
         <f>SUBTOTAL(109,Movies[Budget (INR)])</f>
-        <v>264196.40000000002</v>
+        <v>159096</v>
       </c>
       <c r="O41" s="5">
         <f>SUBTOTAL(109,Movies[Revenue(INR)])</f>
-        <v>1567141</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+        <v>724368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B48" cm="1">
+        <f t="array" ref="B48:B72">_xlfn.UNIQUE(D3:D38)</f>
+        <v>2022</v>
+      </c>
+      <c r="C48" t="e" cm="1">
+        <f t="array" ref="C48">VALUE(mo)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>2013</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="J49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>2017</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10">
+        <v>16136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>1975</v>
+      </c>
+      <c r="I51" s="13">
+        <v>29648</v>
+      </c>
+      <c r="J51" s="10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>1995</v>
+      </c>
+      <c r="I52" s="13">
+        <v>51584</v>
+      </c>
+      <c r="J52" s="10">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>2009</v>
+      </c>
       <c r="F53" t="s">
         <v>172</v>
       </c>
@@ -3621,8 +4724,17 @@
         <f>AVERAGE(Movies[imdb_rating])</f>
         <v>7.9473684210526319</v>
       </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="I53" s="13">
+        <v>53600</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>2001</v>
+      </c>
       <c r="F54" t="s">
         <v>173</v>
       </c>
@@ -3630,8 +4742,17 @@
         <f>MEDIAN(Movies[imdb_rating])</f>
         <v>8.1</v>
       </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="I54" s="13">
+        <v>57152</v>
+      </c>
+      <c r="J54" s="10">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>2015</v>
+      </c>
       <c r="F55" t="s">
         <v>174</v>
       </c>
@@ -3639,8 +4760,86 @@
         <f>MODE(Movies[imdb_rating])</f>
         <v>8.4</v>
       </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="I55" s="13">
+        <v>68320</v>
+      </c>
+      <c r="J55" s="10">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>1994</v>
+      </c>
+      <c r="I56" s="13">
+        <v>76384</v>
+      </c>
+      <c r="J56" s="10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>2010</v>
+      </c>
+      <c r="I57" s="13">
+        <v>163840</v>
+      </c>
+      <c r="J57" s="10">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>2014</v>
+      </c>
+      <c r="I58" s="13">
+        <v>223840</v>
+      </c>
+      <c r="J58" s="10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>2006</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" s="10">
+        <v>16136</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>1993</v>
+      </c>
       <c r="F65" t="s">
         <v>162</v>
       </c>
@@ -3649,7 +4848,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>2019</v>
+      </c>
       <c r="F66" t="s">
         <v>163</v>
       </c>
@@ -3658,7 +4860,10 @@
         <v>80909</v>
       </c>
     </row>
-    <row r="67" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>2018</v>
+      </c>
       <c r="F67" t="s">
         <v>164</v>
       </c>
@@ -3667,13 +4872,36 @@
         <v>4494.9444444444443</v>
       </c>
     </row>
-    <row r="68" spans="6:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>1955</v>
+      </c>
       <c r="F68" t="s">
         <v>165</v>
       </c>
       <c r="G68" s="7">
         <f>G66/Movies[[#Totals],[Revenue(INR)]]</f>
-        <v>5.1628411227834639E-2</v>
+        <v>0.11169598877918406</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -3686,15 +4914,15 @@
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{3A4CF648-6AED-40f4-86FF-DC5316D8AED3}">
       <x14:slicerList xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicer r:id="rId4"/>
+        <x14:slicer r:id="rId5"/>
       </x14:slicerList>
     </ext>
   </extLst>
@@ -6066,34 +7294,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
-    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100686C0266E115364AA9B96DE5BECF7DB6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c921848065db5a49d1de2391ec81580e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="631564f6-0349-4cc5-b00d-7cf3ba42f824" xmlns:ns3="46297aa2-77d1-4586-9726-07d56a535ee7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff9dd1b7eff9d7fccc1b7fb333026bb0" ns2:_="" ns3:_="">
     <xsd:import namespace="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
@@ -6322,26 +7522,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
-    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <MediaLengthInSeconds xmlns="631564f6-0349-4cc5-b00d-7cf3ba42f824" xsi:nil="true"/>
+    <SharedWithUsers xmlns="46297aa2-77d1-4586-9726-07d56a535ee7">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02BA008F-2FD2-4901-8027-A024DA31C6C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6358,4 +7567,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
+    <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>